--- a/Data/EC/NIT-9007578515.xlsx
+++ b/Data/EC/NIT-9007578515.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68762A1B-5D3A-4659-9495-560642D6AD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6978DFD-6F93-4A62-A0C4-487C47D004D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB72116A-6E8D-472A-A165-680559FA9A76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C68A71C-E96C-49CA-A422-36ACAB3B2E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,73 +71,64 @@
     <t>IVAN DARIO CASTAÑO CERVANTES</t>
   </si>
   <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>45693746</t>
+  </si>
+  <si>
+    <t>IRIS ORTEGA ESCRUCERIA</t>
+  </si>
+  <si>
+    <t>1127582480</t>
+  </si>
+  <si>
+    <t>JAINIVER ALONSO MARRUGO MARRUGO</t>
+  </si>
+  <si>
+    <t>1050948947</t>
+  </si>
+  <si>
+    <t>KELIS MARGARITA TORRES LOBOS</t>
+  </si>
+  <si>
+    <t>4028678</t>
+  </si>
+  <si>
+    <t>DIONISIO DEL CARMEN MARRUGO QUINTANA</t>
+  </si>
+  <si>
+    <t>1143338699</t>
+  </si>
+  <si>
+    <t>GHINA MARCELA PIÑERES CARRERA</t>
+  </si>
+  <si>
+    <t>1050944695</t>
+  </si>
+  <si>
+    <t>MAUREN PEREZ PEÑA</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>45693746</t>
-  </si>
-  <si>
-    <t>IRIS ORTEGA ESCRUCERIA</t>
-  </si>
-  <si>
-    <t>45515667</t>
-  </si>
-  <si>
-    <t>SIRLY ROSA PICO RAMOS</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>1127582480</t>
-  </si>
-  <si>
-    <t>JAINIVER ALONSO MARRUGO MARRUGO</t>
-  </si>
-  <si>
-    <t>1050948947</t>
-  </si>
-  <si>
-    <t>KELIS MARGARITA TORRES LOBOS</t>
-  </si>
-  <si>
-    <t>4028678</t>
-  </si>
-  <si>
-    <t>DIONISIO DEL CARMEN MARRUGO QUINTANA</t>
-  </si>
-  <si>
-    <t>1143338699</t>
-  </si>
-  <si>
-    <t>GHINA MARCELA PIÑERES CARRERA</t>
-  </si>
-  <si>
-    <t>1050944695</t>
-  </si>
-  <si>
-    <t>MAUREN PEREZ PEÑA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -236,7 +227,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +442,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +486,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76785A8A-D909-C1D5-7B33-32B3D0A702E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6300FBCE-ED2B-175F-F3F5-0213CCFAC95C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,8 +893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1588557-74C0-43BC-8EC5-9B18B5BDF97B}">
-  <dimension ref="B2:J78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2752AFAA-B4CF-49A3-A4A1-366D0597DFE5}">
+  <dimension ref="B2:J77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -927,7 +918,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +963,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1004,12 +995,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2094802</v>
+        <v>2080082</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1020,17 +1011,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1057,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1080,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>20979</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1094,19 +1085,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1117,13 +1108,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1140,19 +1131,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1163,13 +1154,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1186,19 +1177,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1209,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1238,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1255,16 +1246,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
-        <v>25333</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
         <v>1000000</v>
@@ -1278,19 +1269,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1301,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1324,19 +1315,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1347,19 +1338,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1370,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1393,19 +1384,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1416,13 +1407,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1439,19 +1430,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>14720</v>
+        <v>33125</v>
       </c>
       <c r="G32" s="18">
-        <v>689455</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1462,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F33" s="18">
-        <v>20979</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1485,13 +1476,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1508,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F35" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1531,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1554,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1577,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1600,13 +1591,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1623,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1646,19 +1637,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F41" s="18">
-        <v>25333</v>
+        <v>33125</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1669,19 +1660,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1692,19 +1683,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1715,19 +1706,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1738,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1761,19 +1752,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1784,13 +1775,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1807,19 +1798,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1830,19 +1821,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F49" s="18">
-        <v>20979</v>
+        <v>60000</v>
       </c>
       <c r="G49" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1853,13 +1844,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -1876,13 +1867,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -1899,19 +1890,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F52" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1922,13 +1913,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -1945,19 +1936,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F54" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1968,13 +1959,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -1991,19 +1982,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F56" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G56" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2014,19 +2005,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>38000</v>
+        <v>33125</v>
       </c>
       <c r="G57" s="18">
-        <v>1500000</v>
+        <v>828116</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2037,19 +2028,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
-        <v>60000</v>
+        <v>33125</v>
       </c>
       <c r="G58" s="18">
-        <v>1500000</v>
+        <v>828116</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2060,19 +2051,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2083,19 +2074,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
-        <v>60000</v>
+        <v>33125</v>
       </c>
       <c r="G60" s="18">
-        <v>1500000</v>
+        <v>828116</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2106,19 +2097,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F61" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2129,19 +2120,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F62" s="18">
-        <v>60000</v>
+        <v>33125</v>
       </c>
       <c r="G62" s="18">
-        <v>1500000</v>
+        <v>828116</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2152,13 +2143,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F63" s="18">
         <v>60000</v>
@@ -2175,19 +2166,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F64" s="18">
-        <v>60000</v>
+        <v>33125</v>
       </c>
       <c r="G64" s="18">
-        <v>1500000</v>
+        <v>828116</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2198,13 +2189,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F65" s="18">
         <v>20979</v>
@@ -2221,19 +2212,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F66" s="18">
-        <v>33125</v>
+        <v>25333</v>
       </c>
       <c r="G66" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2244,16 +2235,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F67" s="18">
-        <v>33125</v>
+        <v>20979</v>
       </c>
       <c r="G67" s="18">
         <v>828116</v>
@@ -2267,19 +2258,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F68" s="18">
-        <v>33125</v>
+        <v>25333</v>
       </c>
       <c r="G68" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2290,16 +2281,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F69" s="18">
-        <v>33125</v>
+        <v>20979</v>
       </c>
       <c r="G69" s="18">
         <v>828116</v>
@@ -2313,98 +2304,75 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F70" s="18">
-        <v>33125</v>
+        <v>38000</v>
       </c>
       <c r="G70" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G71" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G72" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="26"/>
+      <c r="B71" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="24">
+        <v>20979</v>
+      </c>
+      <c r="G71" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="26"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="32"/>
+      <c r="H76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C77" s="32"/>
       <c r="H77" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="H78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B78:C78"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="B76:C76"/>
     <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H76:J76"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
